--- a/pareto.xlsx
+++ b/pareto.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\thesis\dhakasim\signal\jMetal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA107B2C-2831-4F23-9AEC-9942627818AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C05585-F6EB-4AE1-8BBE-DC6E71A7FC02}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bin" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="int" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="int" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +163,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF0000FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -500,8 +512,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2431,6 +2447,3111 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>5.2367615582835397E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.499176537609198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2367615582835397E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28796660623319498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3368848525183008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.2590375546923</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.757692125004599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6731499890531794</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68896359070884805</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4250838625771296</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.465217379478799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.9346037491778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0829640936467992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8831913593226695</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.9175861651446</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.855715584863701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7095952013362798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.6795031936249</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.501850864683799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.67331780022475</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6770517914700598</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.72416264035170996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.245979846951499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.5358311342063997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.9693734877280997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.9379698477516296</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0098343309647699</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.7436321696019</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.3259069845804596</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.198202514987299</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.0774578743240903</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.7704961958411198</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.40464159610482</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2010808533202799</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1127439927773399</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0078028687936702</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.8428489384779398</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.2384197112249</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.12912463533573601</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.1513887900312803</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.985600004124001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.5412086562092</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.3101970757304597</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.4705028906029796</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.1895295783112</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.479663717490801</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0405276824654</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.3932302036548601</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.410183162190499</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.566732732482601</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.8472811816474</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.3055270932260399</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.589987706561001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15.907527701344801</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.5810822376242399</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14.273117344923699</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.92959458367327</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.2041820048590992</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.3932302036548601</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.871600090004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.5852647906224901</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.7250726621729</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.9696925622370003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.40770688659001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15.3914643724287</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.0819344979567</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6194783393618097</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.6413115140365</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10.198202514987299</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.227006343468901</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.7360693599792301</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.9367353931984901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.7599277251045908</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.7145963001459501</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10.5412086562092</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.6449823236877599</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.9593563335366802</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14.1651099431049</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.16893814220363</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12.0269000875229</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.1651665171046304</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>15.907527701344801</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.16893814220363</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.9107472925911502</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.7974449249504398</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.9320814667700201</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8065148797766799</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.9320814667700201</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.4592101931319004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>13.515742798984</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.7337262312066004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.15646954967439</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.8065148797766799</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.27553200924914</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11.0819344979567</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>12.0332605163105</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.6414837172479002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.3595999227518401</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.5357754249540301</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.2793702715453801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>656.53439386140496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250.74494660942301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>656.53439386140496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>647.23265033658004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>404.89345442445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>303.63872033723197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>354.68191703643203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400.49832617705403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>635.20274080231002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>522.24748412268605</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>263.01603675956898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>313.42313644142803</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>412.51107719059502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>393.52612167759003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>271.11813974295501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>291.060389972743</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>573.71214395991103</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>296.34676170990798</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>343.15591034462102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>545.06541303940003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>485.70462636040799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>634.14676931302404</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>269.97525814330902</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>458.92506597380702</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>476.96768529765802</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>416.86090456745097</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>625.57661859463201</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>277.626407178634</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>435.22279046258598</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>366.23233104232298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>532.67626377027602</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>421.88511412476601</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>561.37272107996603</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>588.96757440039096</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>561.61768021667899</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>595.79751640286395</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>539.71453184566099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>324.30029556806102</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>654.32918214559902</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>500.45833629906099</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>252.404574367419</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>361.176421100293</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>525.95903477422905</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430.88491328190997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>328.93697139943998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>251.48302213381299</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>623.78416952603698</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>493.20309389035401</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>281.147816032886</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>323.00961997280098</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>315.99141152857698</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>465.83418720321799</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>318.90618987590602</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>255.309364369722</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>607.56753287127196</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>285.91582704251499</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>567.11216248980099</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>392.90374272112001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>493.20309389035401</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>339.42436618138299</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>577.44205628132499</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>339.660393612316</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>445.909223132889</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>552.76879340229902</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>265.48301861887899</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>349.35688523070098</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>456.41564981914502</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>280.92578677235701</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>366.23233104232298</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>345.00472986533703</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>512.91791920062201</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>597.92954067072003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>379.86453458227999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>483.56211099562103</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>361.176421100293</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>383.39429636870398</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>566.21930999389895</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>289.94643647568</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>439.93185573389002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>333.81585612308902</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>470.04500448686002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>255.309364369722</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>439.93185573389002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>452.06457999941301</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>541.07665225148605</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>507.03755599689902</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>601.83615607337401</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>507.03755599689902</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>388.40210069798502</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>301.62855790742702</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>513.25316010994402</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>530.30591350976795</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>601.83615607337401</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>616.73403972252504</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>349.35688523070098</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>333.62504325946202</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>425.75548848256199</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>584.21200231744399</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>608.926737251379</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>586.61889185363805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CEEF-466D-B7BA-5F9159B70C00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="389601120"/>
+        <c:axId val="389596528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="389601120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389596528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="389596528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389601120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.0032808398950136E-3"/>
+                  <c:y val="0.16152923592884222"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$103:$A$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.399999999999899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.399999999999899</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16.399999999999899</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16.399999999999899</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>29.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>36.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>25.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>25.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>20.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>25.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>16.399999999999899</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>29.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>22.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>36.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>16.399999999999899</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>22.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>29.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>14.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>14.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>20.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>36.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>9.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>25.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>16.399999999999899</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>29.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>22.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>20.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>14.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>36.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>9.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>29.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>16.399999999999899</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>22.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>14.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>20.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>36.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$103:$B$302</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>552.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>552.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>486.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>501.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>537.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>528.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>510.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>489.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>525.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>504.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>546.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>534.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>516.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>519.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>495.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>504.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>513.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>498.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>489.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>531.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>537.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>492.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>540.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>507.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>522.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>549.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>528.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>519.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>522.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>498.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>492.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>531.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>507.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>540.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>543.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>534.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>495.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>516.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>543.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>546.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>501.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>525.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>513.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>510.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>549.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>552.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>486.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>489.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>537.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>504.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>519.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>528.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>492.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>540.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>507.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>531.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>498.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>522.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>525.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>501.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>543.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>516.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>534.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>495.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>546.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>513.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>510.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>549.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>552.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>486.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>528.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>504.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>519.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>537.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>489.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>507.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>498.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>492.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>540.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>522.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>531.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>534.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>525.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>546.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>516.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>501.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>543.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>495.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>513.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>510.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>549.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>486.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>552.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>528.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>489.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>537.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>519.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>504.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>492.91668352889297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1C5-4896-8E46-68DE5A3688BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$103:$A$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.399999999999899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.399999999999899</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16.399999999999899</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16.399999999999899</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>29.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>36.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>25.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>25.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>20.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>25.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>16.399999999999899</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>29.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>22.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>36.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>16.399999999999899</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>22.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>29.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>14.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>14.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>20.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>36.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>9.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>25.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>16.399999999999899</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>29.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>22.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>20.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>14.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>36.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>9.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>29.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>16.399999999999899</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>22.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>14.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>20.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>36.199999999999903</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>18.599999999999898</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>31.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>51.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>40.599999999999902</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>47.199999999999903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$103:$C$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="100">
+                  <c:v>486.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>552.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>552.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>486.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>528.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>525.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>534.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>495.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>489.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>546.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>510.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>501.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>516.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>504.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>537.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>519.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>528.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>540.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>522.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>549.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>504.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>519.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>537.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>489.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>498.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>492.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>531.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>513.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>507.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>540.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>507.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>498.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>531.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>492.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>522.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>543.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>546.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>525.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>543.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>534.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>501.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>516.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>495.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>513.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>510.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>549.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>486.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>552.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>528.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>537.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>519.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>504.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>489.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>540.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>522.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>498.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>507.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>531.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>492.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>534.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>546.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>495.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>501.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>516.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>543.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>525.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>513.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>510.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>549.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>486.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>552.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>519.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>489.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>537.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>504.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>492.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>522.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>498.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>540.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>507.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>531.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>495.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>543.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>501.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>534.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>516.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>546.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>525.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>513.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>510.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>549.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>552.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>486.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>504.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>537.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>519.91668352889303</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>489.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>492.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>507.91668352889297</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>498.91668352889297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1C5-4896-8E46-68DE5A3688BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="290440848"/>
+        <c:axId val="388303920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="290440848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388303920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="388303920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="290440848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3437,6 +6558,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4470,6 +7671,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5068,6 +9301,83 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14117240-7B06-4005-B6AA-623CE3F55E18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA64A25-E561-419B-9F0A-25211D954BD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5407,7 +9717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
@@ -5591,7 +9901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A41C763-C623-49AB-B37A-5A6DE755AB02}">
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection sqref="A1:C121"/>
     </sheetView>
   </sheetViews>
@@ -6575,11 +10885,2428 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BC826D-8DD7-459B-A3E7-AD1E8B3C3271}">
+  <dimension ref="A1:C302"/>
+  <sheetViews>
+    <sheetView topLeftCell="A270" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D287" sqref="D287"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>5.2367615582835397E-2</v>
+      </c>
+      <c r="B1">
+        <v>656.53439386140496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16.499176537609198</v>
+      </c>
+      <c r="B2">
+        <v>250.74494660942301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5.2367615582835397E-2</v>
+      </c>
+      <c r="B3">
+        <v>656.53439386140496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.28796660623319498</v>
+      </c>
+      <c r="B4">
+        <v>647.23265033658004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8.3368848525183008</v>
+      </c>
+      <c r="B5">
+        <v>404.89345442445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>13.2590375546923</v>
+      </c>
+      <c r="B6">
+        <v>303.63872033723197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10.757692125004599</v>
+      </c>
+      <c r="B7">
+        <v>354.68191703643203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8.6731499890531794</v>
+      </c>
+      <c r="B8">
+        <v>400.49832617705403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.68896359070884805</v>
+      </c>
+      <c r="B9">
+        <v>635.20274080231002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4.4250838625771296</v>
+      </c>
+      <c r="B10">
+        <v>522.24748412268605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>15.465217379478799</v>
+      </c>
+      <c r="B11">
+        <v>263.01603675956898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12.9346037491778</v>
+      </c>
+      <c r="B12">
+        <v>313.42313644142803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8.0829640936467992</v>
+      </c>
+      <c r="B13">
+        <v>412.51107719059502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8.8831913593226695</v>
+      </c>
+      <c r="B14">
+        <v>393.52612167759003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14.9175861651446</v>
+      </c>
+      <c r="B15">
+        <v>271.11813974295501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13.855715584863701</v>
+      </c>
+      <c r="B16">
+        <v>291.060389972743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2.7095952013362798</v>
+      </c>
+      <c r="B17">
+        <v>573.71214395991103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13.6795031936249</v>
+      </c>
+      <c r="B18">
+        <v>296.34676170990798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11.501850864683799</v>
+      </c>
+      <c r="B19">
+        <v>343.15591034462102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3.67331780022475</v>
+      </c>
+      <c r="B20">
+        <v>545.06541303940003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5.6770517914700598</v>
+      </c>
+      <c r="B21">
+        <v>485.70462636040799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.72416264035170996</v>
+      </c>
+      <c r="B22">
+        <v>634.14676931302404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>15.245979846951499</v>
+      </c>
+      <c r="B23">
+        <v>269.97525814330902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6.5358311342063997</v>
+      </c>
+      <c r="B24">
+        <v>458.92506597380702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5.9693734877280997</v>
+      </c>
+      <c r="B25">
+        <v>476.96768529765802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7.9379698477516296</v>
+      </c>
+      <c r="B26">
+        <v>416.86090456745097</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1.0098343309647699</v>
+      </c>
+      <c r="B27">
+        <v>625.57661859463201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14.7436321696019</v>
+      </c>
+      <c r="B28">
+        <v>277.626407178634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7.3259069845804596</v>
+      </c>
+      <c r="B29">
+        <v>435.22279046258598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10.198202514987299</v>
+      </c>
+      <c r="B30">
+        <v>366.23233104232298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4.0774578743240903</v>
+      </c>
+      <c r="B31">
+        <v>532.67626377027602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7.7704961958411198</v>
+      </c>
+      <c r="B32">
+        <v>421.88511412476601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3.40464159610482</v>
+      </c>
+      <c r="B33">
+        <v>561.37272107996603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2.2010808533202799</v>
+      </c>
+      <c r="B34">
+        <v>588.96757440039096</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3.1127439927773399</v>
+      </c>
+      <c r="B35">
+        <v>561.61768021667899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2.0078028687936702</v>
+      </c>
+      <c r="B36">
+        <v>595.79751640286395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3.8428489384779398</v>
+      </c>
+      <c r="B37">
+        <v>539.71453184566099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>12.2384197112249</v>
+      </c>
+      <c r="B38">
+        <v>324.30029556806102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.12912463533573601</v>
+      </c>
+      <c r="B39">
+        <v>654.32918214559902</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5.1513887900312803</v>
+      </c>
+      <c r="B40">
+        <v>500.45833629906099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>15.985600004124001</v>
+      </c>
+      <c r="B41">
+        <v>252.404574367419</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10.5412086562092</v>
+      </c>
+      <c r="B42">
+        <v>361.176421100293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4.3101970757304597</v>
+      </c>
+      <c r="B43">
+        <v>525.95903477422905</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7.4705028906029796</v>
+      </c>
+      <c r="B44">
+        <v>430.88491328190997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>12.1895295783112</v>
+      </c>
+      <c r="B45">
+        <v>328.93697139943998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>16.479663717490801</v>
+      </c>
+      <c r="B46">
+        <v>251.48302213381299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1.0405276824654</v>
+      </c>
+      <c r="B47">
+        <v>623.78416952603698</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5.3932302036548601</v>
+      </c>
+      <c r="B48">
+        <v>493.20309389035401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>14.410183162190499</v>
+      </c>
+      <c r="B49">
+        <v>281.147816032886</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>12.566732732482601</v>
+      </c>
+      <c r="B50">
+        <v>323.00961997280098</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>12.8472811816474</v>
+      </c>
+      <c r="B51">
+        <v>315.99141152857698</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>6.3055270932260399</v>
+      </c>
+      <c r="B52">
+        <v>465.83418720321799</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>12.589987706561001</v>
+      </c>
+      <c r="B53">
+        <v>318.90618987590602</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>15.907527701344801</v>
+      </c>
+      <c r="B54">
+        <v>255.309364369722</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1.5810822376242399</v>
+      </c>
+      <c r="B55">
+        <v>607.56753287127196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>14.273117344923699</v>
+      </c>
+      <c r="B56">
+        <v>285.91582704251499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2.92959458367327</v>
+      </c>
+      <c r="B57">
+        <v>567.11216248980099</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>9.2041820048590992</v>
+      </c>
+      <c r="B58">
+        <v>392.90374272112001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5.3932302036548601</v>
+      </c>
+      <c r="B59">
+        <v>493.20309389035401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>11.871600090004</v>
+      </c>
+      <c r="B60">
+        <v>339.42436618138299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2.5852647906224901</v>
+      </c>
+      <c r="B61">
+        <v>577.44205628132499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>11.7250726621729</v>
+      </c>
+      <c r="B62">
+        <v>339.660393612316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>6.9696925622370003</v>
+      </c>
+      <c r="B63">
+        <v>445.909223132889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3.40770688659001</v>
+      </c>
+      <c r="B64">
+        <v>552.76879340229902</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>15.3914643724287</v>
+      </c>
+      <c r="B65">
+        <v>265.48301861887899</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>11.0819344979567</v>
+      </c>
+      <c r="B66">
+        <v>349.35688523070098</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6.6194783393618097</v>
+      </c>
+      <c r="B67">
+        <v>456.41564981914502</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>14.6413115140365</v>
+      </c>
+      <c r="B68">
+        <v>280.92578677235701</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>10.198202514987299</v>
+      </c>
+      <c r="B69">
+        <v>366.23233104232298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>11.227006343468901</v>
+      </c>
+      <c r="B70">
+        <v>345.00472986533703</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>4.7360693599792301</v>
+      </c>
+      <c r="B71">
+        <v>512.91791920062201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1.9367353931984901</v>
+      </c>
+      <c r="B72">
+        <v>597.92954067072003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>9.7599277251045908</v>
+      </c>
+      <c r="B73">
+        <v>379.86453458227999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5.7145963001459501</v>
+      </c>
+      <c r="B74">
+        <v>483.56211099562103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>10.5412086562092</v>
+      </c>
+      <c r="B75">
+        <v>361.176421100293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>9.6449823236877599</v>
+      </c>
+      <c r="B76">
+        <v>383.39429636870398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2.9593563335366802</v>
+      </c>
+      <c r="B77">
+        <v>566.21930999389895</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>14.1651099431049</v>
+      </c>
+      <c r="B78">
+        <v>289.94643647568</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>7.16893814220363</v>
+      </c>
+      <c r="B79">
+        <v>439.93185573389002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>12.0269000875229</v>
+      </c>
+      <c r="B80">
+        <v>333.81585612308902</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>6.1651665171046304</v>
+      </c>
+      <c r="B81">
+        <v>470.04500448686002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>15.907527701344801</v>
+      </c>
+      <c r="B82">
+        <v>255.309364369722</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>7.16893814220363</v>
+      </c>
+      <c r="B83">
+        <v>439.93185573389002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>6.9107472925911502</v>
+      </c>
+      <c r="B84">
+        <v>452.06457999941301</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3.7974449249504398</v>
+      </c>
+      <c r="B85">
+        <v>541.07665225148605</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4.9320814667700201</v>
+      </c>
+      <c r="B86">
+        <v>507.03755599689902</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1.8065148797766799</v>
+      </c>
+      <c r="B87">
+        <v>601.83615607337401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4.9320814667700201</v>
+      </c>
+      <c r="B88">
+        <v>507.03755599689902</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>9.4592101931319004</v>
+      </c>
+      <c r="B89">
+        <v>388.40210069798502</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>13.515742798984</v>
+      </c>
+      <c r="B90">
+        <v>301.62855790742702</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>4.7337262312066004</v>
+      </c>
+      <c r="B91">
+        <v>513.25316010994402</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4.15646954967439</v>
+      </c>
+      <c r="B92">
+        <v>530.30591350976795</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1.8065148797766799</v>
+      </c>
+      <c r="B93">
+        <v>601.83615607337401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1.27553200924914</v>
+      </c>
+      <c r="B94">
+        <v>616.73403972252504</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>11.0819344979567</v>
+      </c>
+      <c r="B95">
+        <v>349.35688523070098</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>12.0332605163105</v>
+      </c>
+      <c r="B96">
+        <v>333.62504325946202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>7.6414837172479002</v>
+      </c>
+      <c r="B97">
+        <v>425.75548848256199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2.3595999227518401</v>
+      </c>
+      <c r="B98">
+        <v>584.21200231744399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1.5357754249540301</v>
+      </c>
+      <c r="B99">
+        <v>608.926737251379</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2.2793702715453801</v>
+      </c>
+      <c r="B100">
+        <v>586.61889185363805</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>8.4</v>
+      </c>
+      <c r="B103">
+        <v>552.91668352889303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>56</v>
+      </c>
+      <c r="B104" s="1">
+        <v>486.91668352889297</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>8.4</v>
+      </c>
+      <c r="B105" s="1">
+        <v>552.91668352889303</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>56</v>
+      </c>
+      <c r="B106">
+        <v>486.91668352889297</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>45</v>
+      </c>
+      <c r="B107">
+        <v>501.91668352889297</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>18.599999999999898</v>
+      </c>
+      <c r="B108">
+        <v>537.91668352889303</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>25.1999999999999</v>
+      </c>
+      <c r="B109">
+        <v>528.91668352889303</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>38.4</v>
+      </c>
+      <c r="B110">
+        <v>510.91668352889297</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>53.8</v>
+      </c>
+      <c r="B111">
+        <v>489.91668352889297</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>27.4</v>
+      </c>
+      <c r="B112">
+        <v>525.91668352889303</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>42.8</v>
+      </c>
+      <c r="B113">
+        <v>504.91668352889297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>12</v>
+      </c>
+      <c r="B114">
+        <v>546.91668352889303</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>20.799999999999901</v>
+      </c>
+      <c r="B115">
+        <v>534.91668352889303</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>34</v>
+      </c>
+      <c r="B116">
+        <v>516.91668352889303</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>31.799999999999901</v>
+      </c>
+      <c r="B117">
+        <v>519.91668352889303</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>49.4</v>
+      </c>
+      <c r="B118">
+        <v>495.91668352889297</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>42.8</v>
+      </c>
+      <c r="B119">
+        <v>504.91668352889297</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>36.199999999999903</v>
+      </c>
+      <c r="B120">
+        <v>513.91668352889303</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>47.199999999999903</v>
+      </c>
+      <c r="B121">
+        <v>498.91668352889297</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>53.8</v>
+      </c>
+      <c r="B122">
+        <v>489.91668352889297</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>22.999999999999901</v>
+      </c>
+      <c r="B123">
+        <v>531.91668352889303</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>18.599999999999898</v>
+      </c>
+      <c r="B124">
+        <v>537.91668352889303</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>51.599999999999902</v>
+      </c>
+      <c r="B125">
+        <v>492.91668352889297</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>16.399999999999899</v>
+      </c>
+      <c r="B126">
+        <v>540.91668352889303</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>40.599999999999902</v>
+      </c>
+      <c r="B127">
+        <v>507.91668352889297</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>29.599999999999898</v>
+      </c>
+      <c r="B128">
+        <v>522.91668352889303</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>9.7999999999999901</v>
+      </c>
+      <c r="B129">
+        <v>549.91668352889303</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>25.1999999999999</v>
+      </c>
+      <c r="B130">
+        <v>528.91668352889303</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>31.799999999999901</v>
+      </c>
+      <c r="B131">
+        <v>519.91668352889303</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>29.599999999999898</v>
+      </c>
+      <c r="B132">
+        <v>522.91668352889303</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>47.199999999999903</v>
+      </c>
+      <c r="B133">
+        <v>498.91668352889297</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>51.599999999999902</v>
+      </c>
+      <c r="B134">
+        <v>492.91668352889297</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>22.999999999999901</v>
+      </c>
+      <c r="B135">
+        <v>531.91668352889303</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>40.599999999999902</v>
+      </c>
+      <c r="B136">
+        <v>507.91668352889297</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>16.399999999999899</v>
+      </c>
+      <c r="B137">
+        <v>540.91668352889303</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>14.1999999999999</v>
+      </c>
+      <c r="B138">
+        <v>543.91668352889303</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>20.799999999999901</v>
+      </c>
+      <c r="B139">
+        <v>534.91668352889303</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>49.4</v>
+      </c>
+      <c r="B140">
+        <v>495.91668352889297</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>34</v>
+      </c>
+      <c r="B141">
+        <v>516.91668352889303</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>14.1999999999999</v>
+      </c>
+      <c r="B142">
+        <v>543.91668352889303</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>12</v>
+      </c>
+      <c r="B143">
+        <v>546.91668352889303</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>45</v>
+      </c>
+      <c r="B144">
+        <v>501.91668352889297</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>27.4</v>
+      </c>
+      <c r="B145">
+        <v>525.91668352889303</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>36.199999999999903</v>
+      </c>
+      <c r="B146">
+        <v>513.91668352889303</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>38.4</v>
+      </c>
+      <c r="B147">
+        <v>510.91668352889297</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>9.7999999999999901</v>
+      </c>
+      <c r="B148">
+        <v>549.91668352889303</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>8.4</v>
+      </c>
+      <c r="B149">
+        <v>552.91668352889303</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>56</v>
+      </c>
+      <c r="B150">
+        <v>486.91668352889297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>53.8</v>
+      </c>
+      <c r="B151">
+        <v>489.91668352889297</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>18.599999999999898</v>
+      </c>
+      <c r="B152">
+        <v>537.91668352889303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>42.8</v>
+      </c>
+      <c r="B153">
+        <v>504.91668352889297</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>31.799999999999901</v>
+      </c>
+      <c r="B154">
+        <v>519.91668352889303</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>25.1999999999999</v>
+      </c>
+      <c r="B155">
+        <v>528.91668352889303</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>51.599999999999902</v>
+      </c>
+      <c r="B156">
+        <v>492.91668352889297</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>16.399999999999899</v>
+      </c>
+      <c r="B157">
+        <v>540.91668352889303</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>40.599999999999902</v>
+      </c>
+      <c r="B158">
+        <v>507.91668352889297</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>22.999999999999901</v>
+      </c>
+      <c r="B159">
+        <v>531.91668352889303</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>47.199999999999903</v>
+      </c>
+      <c r="B160">
+        <v>498.91668352889297</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>29.599999999999898</v>
+      </c>
+      <c r="B161">
+        <v>522.91668352889303</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>27.4</v>
+      </c>
+      <c r="B162">
+        <v>525.91668352889303</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>45</v>
+      </c>
+      <c r="B163">
+        <v>501.91668352889297</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>14.1999999999999</v>
+      </c>
+      <c r="B164">
+        <v>543.91668352889303</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>34</v>
+      </c>
+      <c r="B165">
+        <v>516.91668352889303</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>20.799999999999901</v>
+      </c>
+      <c r="B166">
+        <v>534.91668352889303</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>49.4</v>
+      </c>
+      <c r="B167">
+        <v>495.91668352889297</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>12</v>
+      </c>
+      <c r="B168">
+        <v>546.91668352889303</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>36.199999999999903</v>
+      </c>
+      <c r="B169">
+        <v>513.91668352889303</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>38.4</v>
+      </c>
+      <c r="B170">
+        <v>510.91668352889297</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>9.7999999999999901</v>
+      </c>
+      <c r="B171">
+        <v>549.91668352889303</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>8.4</v>
+      </c>
+      <c r="B172">
+        <v>552.91668352889303</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>56</v>
+      </c>
+      <c r="B173">
+        <v>486.91668352889297</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>25.1999999999999</v>
+      </c>
+      <c r="B174">
+        <v>528.91668352889303</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>42.8</v>
+      </c>
+      <c r="B175">
+        <v>504.91668352889297</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>31.799999999999901</v>
+      </c>
+      <c r="B176">
+        <v>519.91668352889303</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>18.599999999999898</v>
+      </c>
+      <c r="B177">
+        <v>537.91668352889303</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>53.8</v>
+      </c>
+      <c r="B178">
+        <v>489.91668352889297</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>40.599999999999902</v>
+      </c>
+      <c r="B179">
+        <v>507.91668352889297</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>47.199999999999903</v>
+      </c>
+      <c r="B180">
+        <v>498.91668352889297</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>51.599999999999902</v>
+      </c>
+      <c r="B181">
+        <v>492.91668352889297</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>16.399999999999899</v>
+      </c>
+      <c r="B182">
+        <v>540.91668352889303</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>29.599999999999898</v>
+      </c>
+      <c r="B183">
+        <v>522.91668352889303</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>22.999999999999901</v>
+      </c>
+      <c r="B184">
+        <v>531.91668352889303</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>20.799999999999901</v>
+      </c>
+      <c r="B185">
+        <v>534.91668352889303</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>27.4</v>
+      </c>
+      <c r="B186">
+        <v>525.91668352889303</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>12</v>
+      </c>
+      <c r="B187">
+        <v>546.91668352889303</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>34</v>
+      </c>
+      <c r="B188">
+        <v>516.91668352889303</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>45</v>
+      </c>
+      <c r="B189">
+        <v>501.91668352889297</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>14.1999999999999</v>
+      </c>
+      <c r="B190">
+        <v>543.91668352889303</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>49.4</v>
+      </c>
+      <c r="B191">
+        <v>495.91668352889297</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>36.199999999999903</v>
+      </c>
+      <c r="B192">
+        <v>513.91668352889303</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>38.4</v>
+      </c>
+      <c r="B193">
+        <v>510.91668352889297</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>9.7999999999999901</v>
+      </c>
+      <c r="B194">
+        <v>549.91668352889303</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>56</v>
+      </c>
+      <c r="B195">
+        <v>486.91668352889297</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>8.4</v>
+      </c>
+      <c r="B196">
+        <v>552.91668352889303</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>25.1999999999999</v>
+      </c>
+      <c r="B197">
+        <v>528.91668352889303</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>53.8</v>
+      </c>
+      <c r="B198">
+        <v>489.91668352889297</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>18.599999999999898</v>
+      </c>
+      <c r="B199">
+        <v>537.91668352889303</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>31.799999999999901</v>
+      </c>
+      <c r="B200">
+        <v>519.91668352889303</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>42.8</v>
+      </c>
+      <c r="B201">
+        <v>504.91668352889297</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>51.599999999999902</v>
+      </c>
+      <c r="B202">
+        <v>492.91668352889297</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>56</v>
+      </c>
+      <c r="C203">
+        <v>486.91668352889297</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>8.4</v>
+      </c>
+      <c r="C204">
+        <v>552.91668352889303</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>8.4</v>
+      </c>
+      <c r="C205">
+        <v>552.91668352889303</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>56</v>
+      </c>
+      <c r="C206">
+        <v>486.91668352889297</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>25.1999999999999</v>
+      </c>
+      <c r="C207">
+        <v>528.91668352889303</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>27.4</v>
+      </c>
+      <c r="C208">
+        <v>525.91668352889303</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>20.799999999999901</v>
+      </c>
+      <c r="C209">
+        <v>534.91668352889303</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>49.4</v>
+      </c>
+      <c r="C210">
+        <v>495.91668352889297</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>53.8</v>
+      </c>
+      <c r="C211">
+        <v>489.91668352889297</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>12</v>
+      </c>
+      <c r="C212">
+        <v>546.91668352889303</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>38.4</v>
+      </c>
+      <c r="C213">
+        <v>510.91668352889297</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>45</v>
+      </c>
+      <c r="C214">
+        <v>501.91668352889297</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>34</v>
+      </c>
+      <c r="C215">
+        <v>516.91668352889303</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>42.8</v>
+      </c>
+      <c r="C216">
+        <v>504.91668352889297</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>18.599999999999898</v>
+      </c>
+      <c r="C217">
+        <v>537.91668352889303</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>31.799999999999901</v>
+      </c>
+      <c r="C218">
+        <v>519.91668352889303</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>25.1999999999999</v>
+      </c>
+      <c r="C219">
+        <v>528.91668352889303</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>16.399999999999899</v>
+      </c>
+      <c r="C220">
+        <v>540.91668352889303</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>29.599999999999898</v>
+      </c>
+      <c r="C221">
+        <v>522.91668352889303</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>9.7999999999999901</v>
+      </c>
+      <c r="C222">
+        <v>549.91668352889303</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>42.8</v>
+      </c>
+      <c r="C223">
+        <v>504.91668352889297</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>31.799999999999901</v>
+      </c>
+      <c r="C224">
+        <v>519.91668352889303</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>18.599999999999898</v>
+      </c>
+      <c r="C225">
+        <v>537.91668352889303</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>53.8</v>
+      </c>
+      <c r="C226">
+        <v>489.91668352889297</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>47.199999999999903</v>
+      </c>
+      <c r="C227">
+        <v>498.91668352889297</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>51.599999999999902</v>
+      </c>
+      <c r="C228">
+        <v>492.91668352889297</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>22.999999999999901</v>
+      </c>
+      <c r="C229">
+        <v>531.91668352889303</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>36.199999999999903</v>
+      </c>
+      <c r="C230">
+        <v>513.91668352889303</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>40.599999999999902</v>
+      </c>
+      <c r="C231">
+        <v>507.91668352889297</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>16.399999999999899</v>
+      </c>
+      <c r="C232">
+        <v>540.91668352889303</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>40.599999999999902</v>
+      </c>
+      <c r="C233">
+        <v>507.91668352889297</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>47.199999999999903</v>
+      </c>
+      <c r="C234">
+        <v>498.91668352889297</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>22.999999999999901</v>
+      </c>
+      <c r="C235">
+        <v>531.91668352889303</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>51.599999999999902</v>
+      </c>
+      <c r="C236">
+        <v>492.91668352889297</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>29.599999999999898</v>
+      </c>
+      <c r="C237">
+        <v>522.91668352889303</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>14.1999999999999</v>
+      </c>
+      <c r="C238">
+        <v>543.91668352889303</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>12</v>
+      </c>
+      <c r="C239">
+        <v>546.91668352889303</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>27.4</v>
+      </c>
+      <c r="C240">
+        <v>525.91668352889303</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>14.1999999999999</v>
+      </c>
+      <c r="C241">
+        <v>543.91668352889303</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>20.799999999999901</v>
+      </c>
+      <c r="C242">
+        <v>534.91668352889303</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>45</v>
+      </c>
+      <c r="C243">
+        <v>501.91668352889297</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>34</v>
+      </c>
+      <c r="C244">
+        <v>516.91668352889303</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>49.4</v>
+      </c>
+      <c r="C245">
+        <v>495.91668352889297</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>36.199999999999903</v>
+      </c>
+      <c r="C246">
+        <v>513.91668352889303</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>38.4</v>
+      </c>
+      <c r="C247">
+        <v>510.91668352889297</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>9.7999999999999901</v>
+      </c>
+      <c r="C248">
+        <v>549.91668352889303</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>56</v>
+      </c>
+      <c r="C249">
+        <v>486.91668352889297</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>8.4</v>
+      </c>
+      <c r="C250">
+        <v>552.91668352889303</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>25.1999999999999</v>
+      </c>
+      <c r="C251">
+        <v>528.91668352889303</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>18.599999999999898</v>
+      </c>
+      <c r="C252">
+        <v>537.91668352889303</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>31.799999999999901</v>
+      </c>
+      <c r="C253">
+        <v>519.91668352889303</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>42.8</v>
+      </c>
+      <c r="C254">
+        <v>504.91668352889297</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>53.8</v>
+      </c>
+      <c r="C255">
+        <v>489.91668352889297</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>16.399999999999899</v>
+      </c>
+      <c r="C256">
+        <v>540.91668352889303</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>29.599999999999898</v>
+      </c>
+      <c r="C257">
+        <v>522.91668352889303</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>47.199999999999903</v>
+      </c>
+      <c r="C258">
+        <v>498.91668352889297</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>40.599999999999902</v>
+      </c>
+      <c r="C259">
+        <v>507.91668352889297</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>22.999999999999901</v>
+      </c>
+      <c r="C260">
+        <v>531.91668352889303</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>51.599999999999902</v>
+      </c>
+      <c r="C261">
+        <v>492.91668352889297</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>20.799999999999901</v>
+      </c>
+      <c r="C262">
+        <v>534.91668352889303</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>12</v>
+      </c>
+      <c r="C263">
+        <v>546.91668352889303</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>49.4</v>
+      </c>
+      <c r="C264">
+        <v>495.91668352889297</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>45</v>
+      </c>
+      <c r="C265">
+        <v>501.91668352889297</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>34</v>
+      </c>
+      <c r="C266">
+        <v>516.91668352889303</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>14.1999999999999</v>
+      </c>
+      <c r="C267">
+        <v>543.91668352889303</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>27.4</v>
+      </c>
+      <c r="C268">
+        <v>525.91668352889303</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>36.199999999999903</v>
+      </c>
+      <c r="C269">
+        <v>513.91668352889303</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>38.4</v>
+      </c>
+      <c r="C270">
+        <v>510.91668352889297</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>9.7999999999999901</v>
+      </c>
+      <c r="C271">
+        <v>549.91668352889303</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>56</v>
+      </c>
+      <c r="C272">
+        <v>486.91668352889297</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>8.4</v>
+      </c>
+      <c r="C273">
+        <v>552.91668352889303</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>31.799999999999901</v>
+      </c>
+      <c r="C274">
+        <v>519.91668352889303</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>53.8</v>
+      </c>
+      <c r="C275">
+        <v>489.91668352889297</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>18.599999999999898</v>
+      </c>
+      <c r="C276">
+        <v>537.91668352889303</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>42.8</v>
+      </c>
+      <c r="C277">
+        <v>504.91668352889297</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>51.599999999999902</v>
+      </c>
+      <c r="C278">
+        <v>492.91668352889297</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>29.599999999999898</v>
+      </c>
+      <c r="C279">
+        <v>522.91668352889303</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>47.199999999999903</v>
+      </c>
+      <c r="C280">
+        <v>498.91668352889297</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>16.399999999999899</v>
+      </c>
+      <c r="C281">
+        <v>540.91668352889303</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>40.599999999999902</v>
+      </c>
+      <c r="C282">
+        <v>507.91668352889297</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>22.999999999999901</v>
+      </c>
+      <c r="C283">
+        <v>531.91668352889303</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>49.4</v>
+      </c>
+      <c r="C284">
+        <v>495.91668352889297</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>14.1999999999999</v>
+      </c>
+      <c r="C285">
+        <v>543.91668352889303</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>45</v>
+      </c>
+      <c r="C286">
+        <v>501.91668352889297</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>20.799999999999901</v>
+      </c>
+      <c r="C287">
+        <v>534.91668352889303</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>34</v>
+      </c>
+      <c r="C288">
+        <v>516.91668352889303</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>12</v>
+      </c>
+      <c r="C289">
+        <v>546.91668352889303</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>27.4</v>
+      </c>
+      <c r="C290">
+        <v>525.91668352889303</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>36.199999999999903</v>
+      </c>
+      <c r="C291">
+        <v>513.91668352889303</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>38.4</v>
+      </c>
+      <c r="C292">
+        <v>510.91668352889297</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>9.7999999999999901</v>
+      </c>
+      <c r="C293">
+        <v>549.91668352889303</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>8.4</v>
+      </c>
+      <c r="C294">
+        <v>552.91668352889303</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>56</v>
+      </c>
+      <c r="C295">
+        <v>486.91668352889297</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>42.8</v>
+      </c>
+      <c r="C296">
+        <v>504.91668352889297</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>18.599999999999898</v>
+      </c>
+      <c r="C297">
+        <v>537.91668352889303</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>31.799999999999901</v>
+      </c>
+      <c r="C298">
+        <v>519.91668352889303</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>53.8</v>
+      </c>
+      <c r="C299">
+        <v>489.91668352889297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>51.599999999999902</v>
+      </c>
+      <c r="C300">
+        <v>492.91668352889297</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>40.599999999999902</v>
+      </c>
+      <c r="C301">
+        <v>507.91668352889297</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>47.199999999999903</v>
+      </c>
+      <c r="C302">
+        <v>498.91668352889297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C436486-F087-42B8-BDAB-22C8CD351887}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="A1:B100"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7388,4 +14115,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6CF197-8BA4-4637-873B-315D8A766E2C}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.6</v>
+      </c>
+      <c r="B3">
+        <f>A3*B$2</f>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f>1-A3</f>
+        <v>0.4</v>
+      </c>
+      <c r="F3">
+        <f>E3*F$2</f>
+        <v>0.4</v>
+      </c>
+      <c r="H3">
+        <f>B3+F3</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B6" si="0">A4*B$2</f>
+        <v>2.5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E6" si="1">1-A4</f>
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F6" si="2">E4*F$2</f>
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H6" si="3">B4+F4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.3</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>